--- a/vertiport_info_144_4.xlsx
+++ b/vertiport_info_144_4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thesis\Projects\simple_airport\thesis\UAM_network\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{155FB5D9-576C-4D17-BF46-0D4983A795BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD6CDCA0-828F-4247-8ED8-6CF351BAFDB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Name</t>
   </si>
@@ -36,12 +36,6 @@
     <t>[0,0]</t>
   </si>
   <si>
-    <t>Airport 1</t>
-  </si>
-  <si>
-    <t>Airport 2</t>
-  </si>
-  <si>
     <t>AircraftID</t>
   </si>
   <si>
@@ -51,42 +45,6 @@
     <t>Pad</t>
   </si>
   <si>
-    <t>Airport1_Pad1</t>
-  </si>
-  <si>
-    <t>Airport1_Pad2</t>
-  </si>
-  <si>
-    <t>Airport1_Pad3</t>
-  </si>
-  <si>
-    <t>Airport1_Pad4</t>
-  </si>
-  <si>
-    <t>Airport2_Pad1</t>
-  </si>
-  <si>
-    <t>Airport2_Pad2</t>
-  </si>
-  <si>
-    <t>Airport2_Pad3</t>
-  </si>
-  <si>
-    <t>Airport2_Pad4</t>
-  </si>
-  <si>
-    <t>Airport3_Pad1</t>
-  </si>
-  <si>
-    <t>Airport3_Pad2</t>
-  </si>
-  <si>
-    <t>Airport3_Pad3</t>
-  </si>
-  <si>
-    <t>Airport3_Pad4</t>
-  </si>
-  <si>
     <t>Capacity</t>
   </si>
   <si>
@@ -94,6 +52,51 @@
   </si>
   <si>
     <t>[-10,17.32]</t>
+  </si>
+  <si>
+    <t>Vertiport1_Pad1</t>
+  </si>
+  <si>
+    <t>Vertiport1_Pad2</t>
+  </si>
+  <si>
+    <t>Vertiport1_Pad3</t>
+  </si>
+  <si>
+    <t>Vertiport1_Pad4</t>
+  </si>
+  <si>
+    <t>Vertiport2_Pad1</t>
+  </si>
+  <si>
+    <t>Vertiport2_Pad2</t>
+  </si>
+  <si>
+    <t>Vertiport2_Pad3</t>
+  </si>
+  <si>
+    <t>Vertiport2_Pad4</t>
+  </si>
+  <si>
+    <t>Vertiport3_Pad1</t>
+  </si>
+  <si>
+    <t>Vertiport3_Pad2</t>
+  </si>
+  <si>
+    <t>Vertiport3_Pad3</t>
+  </si>
+  <si>
+    <t>Vertiport3_Pad4</t>
+  </si>
+  <si>
+    <t>Vertiport 1</t>
+  </si>
+  <si>
+    <t>Vertiport 2</t>
+  </si>
+  <si>
+    <t>Vertiport 3</t>
   </si>
 </sst>
 </file>
@@ -423,7 +426,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A2" sqref="A2:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -443,27 +446,27 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -477,28 +480,28 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
@@ -512,28 +515,28 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
@@ -547,17 +550,17 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
